--- a/jpcore-r4/kohe-testForRelease1.1.2/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/kohe-testForRelease1.1.2/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T21:25:08+00:00</t>
+    <t>2023-10-29T23:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/kohe-testForRelease1.1.2/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/kohe-testForRelease1.1.2/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T23:12:15+00:00</t>
+    <t>2023-10-30T00:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
